--- a/Data/Lab Notebook - Table excel files/240624_PM.xlsx
+++ b/Data/Lab Notebook - Table excel files/240624_PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Lab Notebook - Table excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{810A4D48-87B4-BA49-A461-305EEB24C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{810A4D48-87B4-BA49-A461-305EEB24C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786EB954-FD05-454B-B7B1-CE937CDE5DD6}"/>
   <bookViews>
-    <workbookView xWindow="47840" yWindow="-820" windowWidth="27640" windowHeight="16360" xr2:uid="{F89AA5D6-295B-C54D-B224-BF76BF71EF1D}"/>
+    <workbookView xWindow="2760" yWindow="780" windowWidth="29400" windowHeight="17060" xr2:uid="{F89AA5D6-295B-C54D-B224-BF76BF71EF1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Value</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve"> +25% NHS</t>
+  </si>
+  <si>
+    <t>CNTR</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +476,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -506,7 +509,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
